--- a/out/Devika/BOH uge 19 - ekstra, onsdag.xlsx
+++ b/out/Devika/BOH uge 19 - ekstra, onsdag.xlsx
@@ -350,7 +350,7 @@
     <t>9% filler,90% productNameHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% NrHeader,</t>
@@ -371,13 +371,13 @@
     <t>3% filler,19% containsProductNr,38% containsAmount,38% QuantityHeader,</t>
   </si>
   <si>
+    <t>2% filler,27% containsProduct,13% containsProductNr,27% containsAmount,27% QuantityHeader,</t>
+  </si>
+  <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">PRODUKT, VARENR, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
@@ -487,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,7 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -593,6 +593,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF066D90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF093666"/>
       </patternFill>
     </fill>
@@ -610,7 +615,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
       </patternFill>
     </fill>
     <fill>
@@ -764,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1131,11 +1151,11 @@
     <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="6" applyFont="1" fillId="12" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1146,14 +1166,15 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="19" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="20" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="6" applyFont="1" fillId="10" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1162,13 +1183,13 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="12" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="22" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="12" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1190,40 +1211,57 @@
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="28" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2498,7 +2536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6858A4-EDBC-4333-8929-9D6187224140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5082E3DF-1005-4EE8-A765-DBB12E0A44DE}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2551,7 +2589,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="162">
         <v>45414</v>
       </c>
       <c r="C3" s="86"/>
@@ -2602,7 +2640,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="163">
         <v>38670440</v>
       </c>
       <c r="C6" s="86"/>
@@ -2688,7 +2726,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2716,6 +2754,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>20</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -2953,7 +2994,7 @@
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="140">
@@ -2997,19 +3038,19 @@
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="132">
         <v>67</v>
       </c>
-      <c r="E25" s="156">
+      <c r="E25" s="157">
         <f t="shared" si="0"/>
         <v>368.5</v>
       </c>
@@ -3021,13 +3062,13 @@
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -3043,13 +3084,13 @@
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -3065,7 +3106,7 @@
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="144">
@@ -3089,7 +3130,7 @@
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="146">
@@ -3155,7 +3196,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="146">
@@ -3177,7 +3218,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="146">
@@ -3199,13 +3240,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -3221,13 +3262,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -3243,13 +3284,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -3309,7 +3350,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="62"/>
@@ -3327,7 +3368,7 @@
         <v>50</v>
       </c>
       <c r="D41" s="76"/>
-      <c r="E41" s="156">
+      <c r="E41" s="157">
         <f>SUM(E13:E35)</f>
         <v>1032.5</v>
       </c>
@@ -3346,7 +3387,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="78"/>
-      <c r="E42" s="154">
+      <c r="E42" s="155">
         <f>E41*0.25</f>
         <v>258.125</v>
       </c>
@@ -3354,7 +3395,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>1800</v>
       </c>
-      <c r="G42" s="155">
+      <c r="G42" s="156">
         <f>SUM(G13:G38)</f>
         <v>24950</v>
       </c>
@@ -3367,7 +3408,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="78"/>
-      <c r="E43" s="156">
+      <c r="E43" s="157">
         <f>E41+E42</f>
         <v>1290.625</v>
       </c>
@@ -3376,7 +3417,7 @@
       <c r="H43" s="75"/>
     </row>
     <row r="44" ht="15.6">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="158" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="64"/>
@@ -3388,7 +3429,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.6">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="158" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="64"/>
@@ -3453,7 +3494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5E8920-49B9-45FB-86D8-7F709275032F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517543A9-B753-45A0-82A5-7202EFCEDEF5}">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
@@ -3579,30 +3620,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="163" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="167" t="s">
-        <v>80</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="95">
+        <v>5798009991966</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.6">
       <c r="A10" s="1" t="s">
@@ -3627,25 +3656,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
-      <c r="A12" s="168" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="169" t="s">
+      <c r="A12" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="171" t="s">
+      <c r="E12" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="183" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -3653,46 +3682,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="172">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="178">
         <v>3</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>84</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="181"/>
+      <c r="G13" s="184">
         <f>SUM(B13)*D13</f>
         <v>4200</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="172">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="181"/>
+      <c r="G14" s="184">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -3701,140 +3730,140 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="172">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="178">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="181"/>
+      <c r="G15" s="184">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="172">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="181"/>
+      <c r="G16" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="172">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="178">
         <v>1</v>
       </c>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>25</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="181"/>
+      <c r="G17" s="184">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="172">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="178">
         <v>2</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="181"/>
+      <c r="G18" s="184">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="172">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="178">
         <v>52</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="182"/>
+      <c r="G19" s="184">
         <f t="shared" si="1"/>
         <v>3640</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="172">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="182"/>
+      <c r="G20" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3843,395 +3872,395 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="173">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="178">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="182">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="184"/>
       <c r="H21" s="80"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="173">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="178">
         <v>5</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="182">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>350</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="184"/>
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="174">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="80"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="174">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="184"/>
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="174">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="178">
         <v>60</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="182"/>
+      <c r="G25" s="184">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="174">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="182"/>
+      <c r="G26" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="174">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="178"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="182"/>
+      <c r="G27" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="175">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="178">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="182">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="184"/>
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="176">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="178"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="182">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="184"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="176">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="178"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="184"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="176">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="178"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="184"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="176">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="184"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="176">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="184"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="175">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="184"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="175">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="184"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="175">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="184"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="170"/>
+      <c r="B38" s="177"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -4401,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F3380-32F5-4749-B916-E4D51C95CC3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEECA3A4-1210-4FE0-9E4A-6DD6182AFF21}">
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4527,66 +4556,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="163" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="167" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="T9" s="173" t="s">
-        <v>80</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="95">
+        <v>5798009991966</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.6">
       <c r="A10" s="1" t="s">
@@ -4611,25 +4592,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="26.25" customHeight="1">
-      <c r="A12" s="168" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="169" t="s">
+      <c r="A12" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="171" t="s">
+      <c r="E12" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="183" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -4637,46 +4618,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="172">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="178">
         <v>3</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>84</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="181"/>
+      <c r="G13" s="184">
         <f>SUM(B13)*D13</f>
         <v>4200</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="172">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="181"/>
+      <c r="G14" s="184">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -4685,116 +4666,116 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="172">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="181"/>
+      <c r="G15" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="172">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="178">
         <v>2</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="181"/>
+      <c r="G16" s="184">
         <f t="shared" si="1"/>
         <v>1280</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="172">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="178">
         <v>2</v>
       </c>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>50</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="181"/>
+      <c r="G17" s="184">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="172">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="181"/>
+      <c r="G18" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="172">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="178">
         <v>52</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="182"/>
+      <c r="G19" s="184">
         <f t="shared" si="1"/>
         <v>3640</v>
       </c>
@@ -4810,22 +4791,22 @@
       <c r="S19" s="45"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="172">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="182"/>
+      <c r="G20" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4843,27 +4824,27 @@
       <c r="S20" s="45"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="173">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="178">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="182">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="184"/>
       <c r="H21" s="80"/>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -4876,27 +4857,27 @@
       <c r="S21" s="45"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="173">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="178">
         <v>5</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="182">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>350</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="184"/>
       <c r="H22" s="80"/>
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
@@ -4909,25 +4890,25 @@
       <c r="S22" s="45"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="174">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="80"/>
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
@@ -4940,25 +4921,25 @@
       <c r="S23" s="45"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="174">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="184"/>
       <c r="H24" s="80"/>
       <c r="K24" s="46"/>
       <c r="L24" s="51"/>
@@ -4971,24 +4952,24 @@
       <c r="S24" s="45"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="174">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="178">
         <v>63</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>346.5</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="182"/>
+      <c r="G25" s="184">
         <f t="shared" si="1"/>
         <v>6300</v>
       </c>
@@ -5004,22 +4985,22 @@
       <c r="S25" s="45"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="174">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="182"/>
+      <c r="G26" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5035,22 +5016,22 @@
       <c r="S26" s="45"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="174">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="178"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="182"/>
+      <c r="G27" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5066,27 +5047,27 @@
       <c r="S27" s="45"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="175">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="178">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="182">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="184"/>
       <c r="H28" s="80"/>
       <c r="K28" s="52"/>
       <c r="L28" s="51"/>
@@ -5099,25 +5080,25 @@
       <c r="S28" s="45"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="176">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="178"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="182">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="184"/>
       <c r="H29" s="81"/>
       <c r="K29" s="52"/>
       <c r="L29" s="51"/>
@@ -5130,25 +5111,25 @@
       <c r="S29" s="45"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="176">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="178"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="184"/>
       <c r="H30" s="8"/>
       <c r="K30" s="52"/>
       <c r="L30" s="51"/>
@@ -5161,25 +5142,25 @@
       <c r="S30" s="45"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="176">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="178"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="184"/>
       <c r="H31" s="16"/>
       <c r="K31" s="52"/>
       <c r="L31" s="51"/>
@@ -5192,25 +5173,25 @@
       <c r="S31" s="45"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="176">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="184"/>
       <c r="H32" s="8"/>
       <c r="K32" s="46"/>
       <c r="L32" s="51"/>
@@ -5223,25 +5204,25 @@
       <c r="S32" s="45"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="176">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="184"/>
       <c r="H33" s="8"/>
       <c r="K33" s="52"/>
       <c r="L33" s="51"/>
@@ -5254,25 +5235,25 @@
       <c r="S33" s="45"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="175">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="184"/>
       <c r="H34" s="19"/>
       <c r="K34" s="52"/>
       <c r="L34" s="51"/>
@@ -5285,25 +5266,25 @@
       <c r="S34" s="45"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="175">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="184"/>
       <c r="H35" s="19"/>
       <c r="K35" s="52"/>
       <c r="L35" s="51"/>
@@ -5316,45 +5297,45 @@
       <c r="S35" s="45"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="175">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="19"/>
       <c r="K36" s="52"/>
       <c r="L36" s="51"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="184"/>
       <c r="H37" s="19"/>
       <c r="K37" s="52"/>
       <c r="L37" s="51"/>
@@ -5367,21 +5348,21 @@
       <c r="S37" s="45"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="177"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="19"/>
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
@@ -5648,7 +5629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2235DECF-4623-467C-92DB-FD3AF8CF61A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74E66FA-3E53-48EE-AD86-2EB39F302F82}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
@@ -5774,30 +5755,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="163" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="167" t="s">
-        <v>80</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="95">
+        <v>5798009991966</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.6">
       <c r="A10" s="1" t="s">
@@ -5822,25 +5791,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="168" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="169" t="s">
+      <c r="A12" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="171" t="s">
+      <c r="E12" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="183" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -5848,46 +5817,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="172">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="178">
         <v>6</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>168</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="181"/>
+      <c r="G13" s="184">
         <f>SUM(B13)*D13</f>
         <v>8400</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="172">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="181"/>
+      <c r="G14" s="184">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -5896,136 +5865,136 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="172">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="178">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="181"/>
+      <c r="G15" s="184">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="172">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="181"/>
+      <c r="G16" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="172">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="181"/>
+      <c r="G17" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="172">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="181"/>
+      <c r="G18" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="172">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="178">
         <v>52</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="182"/>
+      <c r="G19" s="184">
         <f t="shared" si="1"/>
         <v>3640</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="172">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="182"/>
+      <c r="G20" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6034,399 +6003,399 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="173">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="178">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="182">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="184"/>
       <c r="H21" s="80"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="173">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="178">
         <v>5</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="182">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>350</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="184"/>
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="174">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="80"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="174">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="184"/>
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="174">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="178">
         <v>63</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>346.5</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="182"/>
+      <c r="G25" s="184">
         <f t="shared" si="1"/>
         <v>6300</v>
       </c>
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="174">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="182"/>
+      <c r="G26" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="174">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="178"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="182"/>
+      <c r="G27" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="175">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="178">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="182">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="184"/>
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="176">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="178"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="182">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="184"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="176">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="178"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="184"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="176">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="178"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="184"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="176">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="184"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="176">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="184"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="175">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="184"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="175">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="184"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="175">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="184"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="177"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -6583,7 +6552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46A18C-4134-4A20-A8F8-33FAF2A0412A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D55BF1B-05D7-46F5-BD4B-2186CCBBAAAB}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6709,30 +6678,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="163" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="167" t="s">
-        <v>80</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="95">
+        <v>5798009991966</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.6">
       <c r="A10" s="1" t="s">
@@ -6757,25 +6714,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="26.25" customHeight="1">
-      <c r="A12" s="168" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="169" t="s">
+      <c r="A12" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="171" t="s">
+      <c r="E12" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="183" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -6783,44 +6740,44 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="172">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="181"/>
+      <c r="G13" s="184">
         <f>SUM(B13)*D13</f>
         <v>0</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="172">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="181"/>
+      <c r="G14" s="184">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -6829,132 +6786,132 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="172">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="181"/>
+      <c r="G15" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="172">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="181"/>
+      <c r="G16" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="172">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="181"/>
+      <c r="G17" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="172">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="181"/>
+      <c r="G18" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="172">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="182"/>
+      <c r="G19" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="172">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="182"/>
+      <c r="G20" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6963,389 +6920,389 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="173">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="182">
         <f>SUM(B21)*D21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="184"/>
       <c r="H21" s="80"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="173">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="182">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="184"/>
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="174">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="80"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="174">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="184"/>
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="174">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="178"/>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="182"/>
+      <c r="G25" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="174">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="182"/>
+      <c r="G26" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="174">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="178"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="182"/>
+      <c r="G27" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="175">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="178"/>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="182">
         <f>SUM(B28)*D28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="184"/>
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="176">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="178"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="182">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="184"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="176">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="178"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="184"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="176">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="178"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="184"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="176">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="184"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="176">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="184"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="175">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="184"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="175">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="184"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="175">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="184"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="170"/>
+      <c r="B38" s="177"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -7506,7 +7463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280B4E51-BF3F-4E44-821C-833A8222AC70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BBA140-531F-4AD1-81CE-7CC17017059D}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7632,30 +7589,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="163" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="167" t="s">
-        <v>80</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="95">
+        <v>5798009991966</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.6">
       <c r="A10" s="1" t="s">
@@ -7680,25 +7625,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="27">
-      <c r="A12" s="168" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="169" t="s">
+      <c r="A12" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="171" t="s">
+      <c r="E12" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="183" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -7706,46 +7651,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="172">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="178">
         <v>9</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>252</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="181"/>
+      <c r="G13" s="184">
         <f>SUM(B13)*D13</f>
         <v>12600</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="172">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="181"/>
+      <c r="G14" s="184">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -7754,136 +7699,136 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="172">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="178">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="181"/>
+      <c r="G15" s="184">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="172">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="181"/>
+      <c r="G16" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="172">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="181"/>
+      <c r="G17" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="172">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="181"/>
+      <c r="G18" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="172">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="178">
         <v>55</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="182"/>
+      <c r="G19" s="184">
         <f t="shared" si="1"/>
         <v>3850</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="172">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="182"/>
+      <c r="G20" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7892,395 +7837,395 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="173">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="178">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="182">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="184"/>
       <c r="H21" s="80"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="173">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="178">
         <v>5</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="182">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>350</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="184"/>
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="174">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="80"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="174">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="184"/>
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="174">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="178">
         <v>67</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>368.5</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="182"/>
+      <c r="G25" s="184">
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="174">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="182"/>
+      <c r="G26" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="174">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="178"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="182"/>
+      <c r="G27" s="184">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="175">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="178">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="182">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="184"/>
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="176">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="178"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="182">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="184"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="176">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="178"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="184"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="176">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="178"/>
       <c r="E31" s="15">
         <f>C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="184"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="176">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="184"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="176">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="184"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="175">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="184"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="175">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="184"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="175">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="184"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="170"/>
+      <c r="B38" s="177"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -12395,7 +12340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554E4BDA-CC2D-465C-9786-EDEA1D2623A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE9AC3-D7BD-42DF-B31B-A9A5150091F8}">
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
@@ -12585,7 +12530,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12613,6 +12558,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>20</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -12854,7 +12802,7 @@
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="140">
@@ -12898,13 +12846,13 @@
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="132">
@@ -12922,13 +12870,13 @@
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -12944,13 +12892,13 @@
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -12966,7 +12914,7 @@
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="144">
@@ -12990,7 +12938,7 @@
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="146">
@@ -13056,7 +13004,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="146">
@@ -13078,7 +13026,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="146">
@@ -13100,13 +13048,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -13122,13 +13070,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -13144,13 +13092,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -13210,7 +13158,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="62"/>
@@ -13247,7 +13195,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="78"/>
-      <c r="E42" s="154">
+      <c r="E42" s="155">
         <f>E41*0.25</f>
         <v>223.75</v>
       </c>
@@ -13255,7 +13203,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>1800</v>
       </c>
-      <c r="G42" s="155">
+      <c r="G42" s="156">
         <f>SUM(G13:G38)</f>
         <v>17440</v>
       </c>
@@ -13268,7 +13216,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="78"/>
-      <c r="E43" s="156">
+      <c r="E43" s="157">
         <f>E41+E42</f>
         <v>1118.75</v>
       </c>
@@ -13277,7 +13225,7 @@
       <c r="H43" s="75"/>
     </row>
     <row r="44" ht="15.6">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="158" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="64"/>
@@ -13289,7 +13237,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.6">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="158" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="64"/>
@@ -13364,7 +13312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AD462F-36A9-4688-AEC9-C6EA2CB49D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D68083-837F-400E-B9C2-B29490D204D9}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13554,7 +13502,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="U11" s="149" t="s">
+      <c r="U11" s="148" t="s">
         <v>78</v>
       </c>
     </row>
@@ -13582,6 +13530,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>20</v>
+      </c>
+      <c r="U12" s="150" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -13857,7 +13808,7 @@
       <c r="S22" s="45"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="140">
@@ -13919,19 +13870,19 @@
       <c r="S24" s="45"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="132">
         <v>63</v>
       </c>
-      <c r="E25" s="156">
+      <c r="E25" s="157">
         <f t="shared" si="0"/>
         <v>346.5</v>
       </c>
@@ -13952,13 +13903,13 @@
       <c r="S25" s="45"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -13983,13 +13934,13 @@
       <c r="S26" s="45"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -14014,7 +13965,7 @@
       <c r="S27" s="45"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="144">
@@ -14047,7 +13998,7 @@
       <c r="S28" s="45"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="146">
@@ -14140,7 +14091,7 @@
       <c r="S31" s="45"/>
     </row>
     <row r="32">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="146">
@@ -14171,7 +14122,7 @@
       <c r="S32" s="45"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="146">
@@ -14202,13 +14153,13 @@
       <c r="S33" s="45"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -14233,13 +14184,13 @@
       <c r="S34" s="45"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -14264,13 +14215,13 @@
       <c r="S35" s="45"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -14288,7 +14239,7 @@
       <c r="L36" s="51"/>
     </row>
     <row r="37">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="153" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="13"/>
@@ -14315,7 +14266,7 @@
       <c r="S37" s="45"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="153" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="13"/>
@@ -14363,7 +14314,7 @@
       <c r="S39" s="45"/>
     </row>
     <row r="40">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="62"/>
@@ -14390,7 +14341,7 @@
         <v>50</v>
       </c>
       <c r="D41" s="76"/>
-      <c r="E41" s="156">
+      <c r="E41" s="157">
         <f>SUM(E13:E35)</f>
         <v>878.5</v>
       </c>
@@ -14418,7 +14369,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="78"/>
-      <c r="E42" s="154">
+      <c r="E42" s="155">
         <f>E41*0.25</f>
         <v>219.625</v>
       </c>
@@ -14426,7 +14377,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>1800</v>
       </c>
-      <c r="G42" s="155">
+      <c r="G42" s="156">
         <f>SUM(G13:G38)</f>
         <v>16620</v>
       </c>
@@ -14448,7 +14399,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="78"/>
-      <c r="E43" s="156">
+      <c r="E43" s="157">
         <f>E41+E42</f>
         <v>1098.125</v>
       </c>
@@ -14466,7 +14417,7 @@
       <c r="S43" s="45"/>
     </row>
     <row r="44" ht="15.6">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="158" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="64"/>
@@ -14487,7 +14438,7 @@
       <c r="S44" s="45"/>
     </row>
     <row r="45" ht="15.6">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="158" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="64"/>
@@ -14596,7 +14547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9EB3BD-703E-4516-B910-BD24154A9514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6429CA3-883F-4440-B5D0-23AE3293E3DD}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
@@ -14668,7 +14619,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="159" t="s">
         <v>63</v>
       </c>
       <c r="E4" s="83"/>
@@ -14786,7 +14737,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>78</v>
       </c>
     </row>
@@ -14814,6 +14765,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>20</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -15051,7 +15005,7 @@
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="140">
@@ -15095,19 +15049,19 @@
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="132">
         <v>63</v>
       </c>
-      <c r="E25" s="156">
+      <c r="E25" s="157">
         <f t="shared" si="0"/>
         <v>346.5</v>
       </c>
@@ -15119,13 +15073,13 @@
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -15141,13 +15095,13 @@
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -15163,7 +15117,7 @@
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="144">
@@ -15187,7 +15141,7 @@
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="146">
@@ -15253,7 +15207,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="146">
@@ -15275,7 +15229,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="146">
@@ -15297,13 +15251,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -15319,13 +15273,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -15341,13 +15295,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -15363,7 +15317,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="153" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="13"/>
@@ -15381,7 +15335,7 @@
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="152" t="s">
+      <c r="A38" s="153" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="13"/>
@@ -15411,7 +15365,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="62"/>
@@ -15429,7 +15383,7 @@
         <v>50</v>
       </c>
       <c r="D41" s="76"/>
-      <c r="E41" s="156">
+      <c r="E41" s="157">
         <f>SUM(E13:E35)</f>
         <v>914.5</v>
       </c>
@@ -15453,7 +15407,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>1800</v>
       </c>
-      <c r="G42" s="155">
+      <c r="G42" s="156">
         <f>SUM(G13:G38)</f>
         <v>20140</v>
       </c>
@@ -15466,7 +15420,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="78"/>
-      <c r="E43" s="156">
+      <c r="E43" s="157">
         <f>E41+E42</f>
         <v>914.5</v>
       </c>
@@ -15475,7 +15429,7 @@
       <c r="H43" s="75"/>
     </row>
     <row r="44" ht="15.6">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="158" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="64"/>
@@ -15487,7 +15441,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.6">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="158" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="64"/>
@@ -15552,7 +15506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB70A0F5-7665-4312-9AA7-EB5B926ADA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637F01AF-0B72-4D8B-B825-E041EB50B0CD}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15624,7 +15578,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="160" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="83"/>
@@ -15742,7 +15696,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15771,6 +15725,9 @@
       <c r="H12" s="26" t="s">
         <v>20</v>
       </c>
+      <c r="I12" s="150" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="128" t="s">
@@ -15997,7 +15954,7 @@
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="140">
@@ -16041,13 +15998,13 @@
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="7"/>
@@ -16063,13 +16020,13 @@
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -16085,13 +16042,13 @@
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -16107,7 +16064,7 @@
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="144">
@@ -16129,7 +16086,7 @@
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="146">
@@ -16195,7 +16152,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="146">
@@ -16217,7 +16174,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="146">
@@ -16239,13 +16196,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -16261,13 +16218,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -16283,13 +16240,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -16305,7 +16262,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="153" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="13"/>
@@ -16351,7 +16308,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="62"/>
@@ -16388,7 +16345,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="78"/>
-      <c r="E42" s="160">
+      <c r="E42" s="161">
         <f>E41*0.25</f>
         <v>0</v>
       </c>
@@ -16396,7 +16353,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>0</v>
       </c>
-      <c r="G42" s="155">
+      <c r="G42" s="156">
         <f>SUM(G13:G38)</f>
         <v>0</v>
       </c>
@@ -16418,7 +16375,7 @@
       <c r="H43" s="75"/>
     </row>
     <row r="44" ht="15.6">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="158" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="64"/>
@@ -16430,7 +16387,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.6">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="158" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="64"/>
